--- a/natmiOut/OldD0/LR-pairs_lrc2p/Jag2-Notch4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Jag2-Notch4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.23166039785677</v>
+        <v>7.235148</v>
       </c>
       <c r="H2">
-        <v>3.23166039785677</v>
+        <v>21.705444</v>
       </c>
       <c r="I2">
-        <v>0.9103890862344178</v>
+        <v>0.9254344869740032</v>
       </c>
       <c r="J2">
-        <v>0.9103890862344178</v>
+        <v>0.9254344869740032</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.4353128443211</v>
+        <v>30.345835</v>
       </c>
       <c r="N2">
-        <v>18.4353128443211</v>
+        <v>91.03750500000001</v>
       </c>
       <c r="O2">
-        <v>0.785327884338429</v>
+        <v>0.8527782452855476</v>
       </c>
       <c r="P2">
-        <v>0.785327884338429</v>
+        <v>0.8527782452855475</v>
       </c>
       <c r="Q2">
-        <v>59.57667044109274</v>
+        <v>219.55660740858</v>
       </c>
       <c r="R2">
-        <v>59.57667044109274</v>
+        <v>1976.00946667722</v>
       </c>
       <c r="S2">
-        <v>0.714953935017271</v>
+        <v>0.7891903979284214</v>
       </c>
       <c r="T2">
-        <v>0.714953935017271</v>
+        <v>0.7891903979284213</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.23166039785677</v>
+        <v>7.235148</v>
       </c>
       <c r="H3">
-        <v>3.23166039785677</v>
+        <v>21.705444</v>
       </c>
       <c r="I3">
-        <v>0.9103890862344178</v>
+        <v>0.9254344869740032</v>
       </c>
       <c r="J3">
-        <v>0.9103890862344178</v>
+        <v>0.9254344869740032</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.12789594829197</v>
+        <v>3.224107666666666</v>
       </c>
       <c r="N3">
-        <v>3.12789594829197</v>
+        <v>9.672322999999999</v>
       </c>
       <c r="O3">
-        <v>0.1332455775633645</v>
+        <v>0.09060383010029813</v>
       </c>
       <c r="P3">
-        <v>0.1332455775633645</v>
+        <v>0.09060383010029811</v>
       </c>
       <c r="Q3">
-        <v>10.10829746471181</v>
+        <v>23.326896136268</v>
       </c>
       <c r="R3">
-        <v>10.10829746471181</v>
+        <v>209.942065226412</v>
       </c>
       <c r="S3">
-        <v>0.1213053196026887</v>
+        <v>0.08384790902674914</v>
       </c>
       <c r="T3">
-        <v>0.1213053196026887</v>
+        <v>0.08384790902674913</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.23166039785677</v>
+        <v>7.235148</v>
       </c>
       <c r="H4">
-        <v>3.23166039785677</v>
+        <v>21.705444</v>
       </c>
       <c r="I4">
-        <v>0.9103890862344178</v>
+        <v>0.9254344869740032</v>
       </c>
       <c r="J4">
-        <v>0.9103890862344178</v>
+        <v>0.9254344869740032</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.91146110256232</v>
+        <v>2.014730333333333</v>
       </c>
       <c r="N4">
-        <v>1.91146110256232</v>
+        <v>6.044191</v>
       </c>
       <c r="O4">
-        <v>0.08142653809820651</v>
+        <v>0.05661792461415433</v>
       </c>
       <c r="P4">
-        <v>0.08142653809820651</v>
+        <v>0.05661792461415433</v>
       </c>
       <c r="Q4">
-        <v>6.177193147194287</v>
+        <v>14.576872141756</v>
       </c>
       <c r="R4">
-        <v>6.177193147194287</v>
+        <v>131.191849275804</v>
       </c>
       <c r="S4">
-        <v>0.07412983161445823</v>
+        <v>0.0523961800188327</v>
       </c>
       <c r="T4">
-        <v>0.07412983161445823</v>
+        <v>0.0523961800188327</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.160366801038561</v>
+        <v>0.3016356666666667</v>
       </c>
       <c r="H5">
-        <v>0.160366801038561</v>
+        <v>0.9049070000000001</v>
       </c>
       <c r="I5">
-        <v>0.04517683403759151</v>
+        <v>0.03858166390441884</v>
       </c>
       <c r="J5">
-        <v>0.04517683403759151</v>
+        <v>0.03858166390441884</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.4353128443211</v>
+        <v>30.345835</v>
       </c>
       <c r="N5">
-        <v>18.4353128443211</v>
+        <v>91.03750500000001</v>
       </c>
       <c r="O5">
-        <v>0.785327884338429</v>
+        <v>0.8527782452855476</v>
       </c>
       <c r="P5">
-        <v>0.785327884338429</v>
+        <v>0.8527782452855475</v>
       </c>
       <c r="Q5">
-        <v>2.95641214698887</v>
+        <v>9.153386170781669</v>
       </c>
       <c r="R5">
-        <v>2.95641214698887</v>
+        <v>82.38047553703503</v>
       </c>
       <c r="S5">
-        <v>0.03547862749585007</v>
+        <v>0.03290160364460705</v>
       </c>
       <c r="T5">
-        <v>0.03547862749585007</v>
+        <v>0.03290160364460704</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.160366801038561</v>
+        <v>0.3016356666666667</v>
       </c>
       <c r="H6">
-        <v>0.160366801038561</v>
+        <v>0.9049070000000001</v>
       </c>
       <c r="I6">
-        <v>0.04517683403759151</v>
+        <v>0.03858166390441884</v>
       </c>
       <c r="J6">
-        <v>0.04517683403759151</v>
+        <v>0.03858166390441884</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.12789594829197</v>
+        <v>3.224107666666666</v>
       </c>
       <c r="N6">
-        <v>3.12789594829197</v>
+        <v>9.672322999999999</v>
       </c>
       <c r="O6">
-        <v>0.1332455775633645</v>
+        <v>0.09060383010029813</v>
       </c>
       <c r="P6">
-        <v>0.1332455775633645</v>
+        <v>0.09060383010029811</v>
       </c>
       <c r="Q6">
-        <v>0.5016106672090594</v>
+        <v>0.9725058654401111</v>
       </c>
       <c r="R6">
-        <v>0.5016106672090594</v>
+        <v>8.752552788960999</v>
       </c>
       <c r="S6">
-        <v>0.006019613343823144</v>
+        <v>0.00349564652138277</v>
       </c>
       <c r="T6">
-        <v>0.006019613343823144</v>
+        <v>0.003495646521382769</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.160366801038561</v>
+        <v>0.3016356666666667</v>
       </c>
       <c r="H7">
-        <v>0.160366801038561</v>
+        <v>0.9049070000000001</v>
       </c>
       <c r="I7">
-        <v>0.04517683403759151</v>
+        <v>0.03858166390441884</v>
       </c>
       <c r="J7">
-        <v>0.04517683403759151</v>
+        <v>0.03858166390441884</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.91146110256232</v>
+        <v>2.014730333333333</v>
       </c>
       <c r="N7">
-        <v>1.91146110256232</v>
+        <v>6.044191</v>
       </c>
       <c r="O7">
-        <v>0.08142653809820651</v>
+        <v>0.05661792461415433</v>
       </c>
       <c r="P7">
-        <v>0.08142653809820651</v>
+        <v>0.05661792461415433</v>
       </c>
       <c r="Q7">
-        <v>0.30653490232756</v>
+        <v>0.6077145272485556</v>
       </c>
       <c r="R7">
-        <v>0.30653490232756</v>
+        <v>5.469430745237</v>
       </c>
       <c r="S7">
-        <v>0.003678593197918297</v>
+        <v>0.002184413738429025</v>
       </c>
       <c r="T7">
-        <v>0.003678593197918297</v>
+        <v>0.002184413738429025</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.157730203429946</v>
+        <v>0.2813256666666666</v>
       </c>
       <c r="H8">
-        <v>0.157730203429946</v>
+        <v>0.843977</v>
       </c>
       <c r="I8">
-        <v>0.04443407972799056</v>
+        <v>0.0359838491215779</v>
       </c>
       <c r="J8">
-        <v>0.04443407972799056</v>
+        <v>0.0359838491215779</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.4353128443211</v>
+        <v>30.345835</v>
       </c>
       <c r="N8">
-        <v>18.4353128443211</v>
+        <v>91.03750500000001</v>
       </c>
       <c r="O8">
-        <v>0.785327884338429</v>
+        <v>0.8527782452855476</v>
       </c>
       <c r="P8">
-        <v>0.785327884338429</v>
+        <v>0.8527782452855475</v>
       </c>
       <c r="Q8">
-        <v>2.907805645229464</v>
+        <v>8.537062261931666</v>
       </c>
       <c r="R8">
-        <v>2.907805645229464</v>
+        <v>76.83356035738501</v>
       </c>
       <c r="S8">
-        <v>0.03489532182530791</v>
+        <v>0.03068624371251909</v>
       </c>
       <c r="T8">
-        <v>0.03489532182530791</v>
+        <v>0.03068624371251909</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.157730203429946</v>
+        <v>0.2813256666666666</v>
       </c>
       <c r="H9">
-        <v>0.157730203429946</v>
+        <v>0.843977</v>
       </c>
       <c r="I9">
-        <v>0.04443407972799056</v>
+        <v>0.0359838491215779</v>
       </c>
       <c r="J9">
-        <v>0.04443407972799056</v>
+        <v>0.0359838491215779</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.12789594829197</v>
+        <v>3.224107666666666</v>
       </c>
       <c r="N9">
-        <v>3.12789594829197</v>
+        <v>9.672322999999999</v>
       </c>
       <c r="O9">
-        <v>0.1332455775633645</v>
+        <v>0.09060383010029813</v>
       </c>
       <c r="P9">
-        <v>0.1332455775633645</v>
+        <v>0.09060383010029811</v>
       </c>
       <c r="Q9">
-        <v>0.4933636642317963</v>
+        <v>0.907024238730111</v>
       </c>
       <c r="R9">
-        <v>0.4933636642317963</v>
+        <v>8.163218148570998</v>
       </c>
       <c r="S9">
-        <v>0.005920644616852688</v>
+        <v>0.003260274552166206</v>
       </c>
       <c r="T9">
-        <v>0.005920644616852688</v>
+        <v>0.003260274552166206</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.157730203429946</v>
+        <v>0.2813256666666666</v>
       </c>
       <c r="H10">
-        <v>0.157730203429946</v>
+        <v>0.843977</v>
       </c>
       <c r="I10">
-        <v>0.04443407972799056</v>
+        <v>0.0359838491215779</v>
       </c>
       <c r="J10">
-        <v>0.04443407972799056</v>
+        <v>0.0359838491215779</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.91146110256232</v>
+        <v>2.014730333333333</v>
       </c>
       <c r="N10">
-        <v>1.91146110256232</v>
+        <v>6.044191</v>
       </c>
       <c r="O10">
-        <v>0.08142653809820651</v>
+        <v>0.05661792461415433</v>
       </c>
       <c r="P10">
-        <v>0.08142653809820651</v>
+        <v>0.05661792461415433</v>
       </c>
       <c r="Q10">
-        <v>0.3014951485555836</v>
+        <v>0.5667953541785554</v>
       </c>
       <c r="R10">
-        <v>0.3014951485555836</v>
+        <v>5.101158187606999</v>
       </c>
       <c r="S10">
-        <v>0.003618113285829969</v>
+        <v>0.002037330856892601</v>
       </c>
       <c r="T10">
-        <v>0.003618113285829969</v>
+        <v>0.002037330856892601</v>
       </c>
     </row>
   </sheetData>
